--- a/data/trans_dic/Q45B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 7,49</t>
+          <t>1,88; 7,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,68</t>
+          <t>0,64; 3,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 11,5</t>
+          <t>4,8; 11,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 6,28</t>
+          <t>1,3; 5,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,94</t>
+          <t>3,9; 8,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,06</t>
+          <t>1,32; 4,12</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,26</t>
+          <t>0,81; 3,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,69</t>
+          <t>0,57; 2,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,32 +810,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,8</t>
+          <t>4,62; 9,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,2</t>
+          <t>1,96; 5,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,63</t>
+          <t>0,19; 1,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,62</t>
+          <t>3,01; 5,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,26</t>
+          <t>1,46; 3,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,82</t>
+          <t>0,1; 0,91</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,8</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,73</t>
+          <t>0,28; 2,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 12,22</t>
+          <t>5,66; 11,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,11</t>
+          <t>4,47; 10,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,24</t>
+          <t>4,36; 9,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,4</t>
+          <t>3,04; 6,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,54</t>
+          <t>2,66; 5,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,99</t>
+          <t>2,28; 4,94</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,98</t>
+          <t>0,76; 3,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,44</t>
+          <t>0,24; 1,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 10,6</t>
+          <t>5,1; 10,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,47</t>
+          <t>3,75; 7,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,47</t>
+          <t>1,21; 4,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,62</t>
+          <t>3,34; 6,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,15</t>
+          <t>2,24; 4,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,65</t>
+          <t>0,77; 2,55</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,85</t>
+          <t>0,87; 5,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,28</t>
+          <t>0,0; 3,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,13</t>
+          <t>0,42; 3,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 12,58</t>
+          <t>4,49; 12,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,32</t>
+          <t>1,25; 5,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,12</t>
+          <t>0,37; 3,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,93</t>
+          <t>3,34; 7,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,58</t>
+          <t>0,88; 3,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,59</t>
+          <t>0,42; 2,64</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,32</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,34</t>
+          <t>0,98; 4,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,27</t>
+          <t>0,36; 2,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,48; 16,54</t>
+          <t>8,6; 16,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,73; 9,81</t>
+          <t>3,78; 9,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,88</t>
+          <t>0,32; 2,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,77</t>
+          <t>4,43; 8,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,33</t>
+          <t>2,88; 6,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,13</t>
+          <t>0,35; 2,1</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,86</t>
+          <t>0,19; 1,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,05</t>
+          <t>1,17; 3,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,16</t>
+          <t>0,34; 2,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,2</t>
+          <t>7,12; 11,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,11; 11,77</t>
+          <t>7,02; 11,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,44</t>
+          <t>1,72; 4,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,87; 6,4</t>
+          <t>3,78; 6,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,23</t>
+          <t>4,49; 7,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,8</t>
+          <t>1,28; 2,86</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,19</t>
+          <t>2,36; 5,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,0</t>
+          <t>4,64; 8,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,56</t>
+          <t>0,87; 2,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,67; 8,17</t>
+          <t>4,51; 8,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,96; 14,7</t>
+          <t>9,85; 14,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,88</t>
+          <t>5,28; 8,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,08</t>
+          <t>3,98; 6,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,95; 10,97</t>
+          <t>7,86; 10,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,43</t>
+          <t>3,39; 5,42</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,51</t>
+          <t>1,58; 2,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,12</t>
+          <t>2,01; 3,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,27</t>
+          <t>0,64; 1,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,94; 8,87</t>
+          <t>6,91; 8,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,55; 8,33</t>
+          <t>6,49; 8,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,14</t>
+          <t>2,93; 4,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,39; 5,43</t>
+          <t>4,44; 5,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,52; 5,58</t>
+          <t>4,5; 5,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,63</t>
+          <t>1,93; 2,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q45B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,37</t>
+          <t>1,93; 7,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,54</t>
+          <t>0,65; 3,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 11,8</t>
+          <t>5,04; 11,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,69</t>
+          <t>1,29; 6,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,06</t>
+          <t>4,03; 8,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,12</t>
+          <t>1,33; 4,1</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,14</t>
+          <t>0,91; 3,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,61</t>
+          <t>0,57; 2,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,32 +810,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 9,02</t>
+          <t>4,52; 9,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,33</t>
+          <t>1,92; 5,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,65</t>
+          <t>0,19; 1,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,46</t>
+          <t>3,0; 5,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,34</t>
+          <t>1,45; 3,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,91</t>
+          <t>0,1; 0,85</t>
         </is>
       </c>
     </row>
@@ -910,42 +910,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,45</t>
+          <t>0,29; 2,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 11,66</t>
+          <t>5,85; 11,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,47; 10,11</t>
+          <t>4,65; 10,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 9,46</t>
+          <t>4,27; 9,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,35</t>
+          <t>3,16; 6,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,83</t>
+          <t>2,85; 5,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,94</t>
+          <t>2,34; 5,01</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,91</t>
+          <t>0,73; 4,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,52</t>
+          <t>0,13; 1,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 10,54</t>
+          <t>5,17; 10,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 7,36</t>
+          <t>3,9; 7,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,5</t>
+          <t>1,23; 4,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,4</t>
+          <t>3,37; 6,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,15</t>
+          <t>2,19; 4,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,55</t>
+          <t>0,77; 2,51</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,79</t>
+          <t>0,87; 5,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,32</t>
+          <t>0,0; 3,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,63</t>
+          <t>0,42; 3,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 12,2</t>
+          <t>4,16; 11,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,28</t>
+          <t>0,9; 5,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,15</t>
+          <t>0,38; 3,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,84</t>
+          <t>3,2; 8,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,47</t>
+          <t>0,88; 3,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,64</t>
+          <t>0,43; 2,51</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,18</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,3</t>
+          <t>0,72; 4,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,81</t>
+          <t>0,36; 2,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,6; 16,23</t>
+          <t>8,66; 16,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,54</t>
+          <t>3,84; 9,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,94</t>
+          <t>0,32; 2,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,59</t>
+          <t>4,46; 8,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,28</t>
+          <t>2,84; 6,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,1</t>
+          <t>0,51; 2,29</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,91</t>
+          <t>0,16; 1,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,93</t>
+          <t>1,31; 4,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,02</t>
+          <t>0,34; 1,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,37</t>
+          <t>6,96; 11,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,02; 11,42</t>
+          <t>7,0; 11,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,42</t>
+          <t>1,8; 4,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 6,27</t>
+          <t>3,85; 6,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,45</t>
+          <t>4,62; 7,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,86</t>
+          <t>1,29; 2,83</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,02</t>
+          <t>2,33; 5,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,13</t>
+          <t>4,66; 8,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,6</t>
+          <t>0,79; 2,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,51; 8,15</t>
+          <t>4,71; 8,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,85; 14,53</t>
+          <t>9,9; 14,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,84</t>
+          <t>5,4; 8,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,98; 6,12</t>
+          <t>3,98; 6,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,86; 10,82</t>
+          <t>7,83; 10,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,42</t>
+          <t>3,36; 5,43</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,63</t>
+          <t>1,52; 2,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,15</t>
+          <t>1,98; 3,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,31</t>
+          <t>0,65; 1,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,91; 8,72</t>
+          <t>6,92; 8,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,49; 8,27</t>
+          <t>6,62; 8,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,93; 4,17</t>
+          <t>2,98; 4,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,44; 5,52</t>
+          <t>4,45; 5,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,5; 5,6</t>
+          <t>4,48; 5,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,68</t>
+          <t>1,97; 2,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q45B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,77</t>
+          <t>1,9; 7,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,65</t>
+          <t>0,65; 3,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 11,8</t>
+          <t>4,8; 11,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,0</t>
+          <t>1,5; 6,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,47</t>
+          <t>4,03; 7,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,1</t>
+          <t>1,28; 4,06</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,19</t>
+          <t>0,82; 3,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,6</t>
+          <t>0,56; 2,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,32 +810,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 9,12</t>
+          <t>4,5; 8,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,22</t>
+          <t>1,92; 5,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,67</t>
+          <t>0,19; 1,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,44</t>
+          <t>2,95; 5,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,3</t>
+          <t>1,45; 3,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,85</t>
+          <t>0,1; 0,82</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,09</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,13</t>
+          <t>0,29; 2,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 11,74</t>
+          <t>5,68; 12,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 10,2</t>
+          <t>4,58; 10,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,19</t>
+          <t>4,18; 9,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,26</t>
+          <t>3,18; 6,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,8</t>
+          <t>2,72; 5,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,01</t>
+          <t>2,28; 4,99</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,26</t>
+          <t>0,82; 3,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,53</t>
+          <t>0,13; 1,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 10,62</t>
+          <t>5,14; 10,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,38</t>
+          <t>3,8; 7,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,33</t>
+          <t>1,21; 4,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,46</t>
+          <t>3,34; 6,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,1</t>
+          <t>2,16; 4,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,51</t>
+          <t>0,81; 2,65</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,68</t>
+          <t>0,88; 5,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,95</t>
+          <t>0,0; 3,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,57</t>
+          <t>0,42; 4,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,16; 11,85</t>
+          <t>4,4; 12,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,95</t>
+          <t>0,91; 5,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,15</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,1</t>
+          <t>3,24; 7,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,65</t>
+          <t>0,88; 3,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,51</t>
+          <t>0,42; 2,59</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,65</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,46</t>
+          <t>0,75; 4,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,96</t>
+          <t>0,36; 3,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,66; 16,61</t>
+          <t>8,48; 16,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,84; 9,61</t>
+          <t>3,73; 9,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,66</t>
+          <t>0,33; 2,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,46</t>
+          <t>4,31; 8,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,31</t>
+          <t>2,78; 6,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,29</t>
+          <t>0,5; 2,13</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,8</t>
+          <t>0,28; 1,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,13</t>
+          <t>1,26; 4,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,98</t>
+          <t>0,34; 2,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,58</t>
+          <t>6,82; 11,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,31</t>
+          <t>7,11; 11,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,5</t>
+          <t>1,78; 4,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,85; 6,26</t>
+          <t>3,87; 6,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,34</t>
+          <t>4,65; 7,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,83</t>
+          <t>1,29; 2,8</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,13</t>
+          <t>2,36; 5,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,19</t>
+          <t>4,5; 8,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,63</t>
+          <t>0,86; 2,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,08</t>
+          <t>4,67; 8,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,9; 14,56</t>
+          <t>9,96; 14,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,93</t>
+          <t>5,37; 8,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,98; 6,17</t>
+          <t>3,94; 6,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,83; 10,92</t>
+          <t>7,95; 10,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,43</t>
+          <t>3,38; 5,43</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,53</t>
+          <t>1,52; 2,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,98; 3,1</t>
+          <t>2,04; 3,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,32</t>
+          <t>0,66; 1,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,92; 8,78</t>
+          <t>6,94; 8,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,62; 8,31</t>
+          <t>6,55; 8,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,22</t>
+          <t>2,98; 4,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,45; 5,6</t>
+          <t>4,39; 5,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,48; 5,58</t>
+          <t>4,52; 5,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,97; 2,64</t>
+          <t>1,93; 2,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q45B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 2,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,63; 11,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,89; 6,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,44</t>
+          <t>0,0; 1,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,47</t>
+          <t>2,2; 5,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,15</t>
+          <t>1,15; 3,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/Q45B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 7,49</t>
+          <t>1,92; 7,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,8</t>
+          <t>0,28; 2,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,68</t>
+          <t>0,64; 3,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 11,5</t>
+          <t>4,7; 11,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,98</t>
+          <t>4,82; 11,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 6,28</t>
+          <t>1,36; 6,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,94</t>
+          <t>3,82; 8,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,67</t>
+          <t>2,83; 6,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,06</t>
+          <t>1,3; 3,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,26</t>
+          <t>0,91; 3,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,69</t>
+          <t>0,56; 2,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,39 +811,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,8</t>
+          <t>4,61; 8,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,2</t>
+          <t>1,95; 5,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,63</t>
+          <t>0,19; 1,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,62</t>
+          <t>2,99; 5,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,26</t>
+          <t>1,51; 3,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,82</t>
+          <t>0,1; 0,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,8</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,73</t>
+          <t>0,29; 2,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 12,22</t>
+          <t>5,64; 11,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,11</t>
+          <t>4,54; 9,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,24</t>
+          <t>4,13; 9,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,4</t>
+          <t>3,01; 6,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,54</t>
+          <t>2,67; 5,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,99</t>
+          <t>2,35; 5,18</t>
         </is>
       </c>
     </row>
@@ -1015,37 +1016,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,98</t>
+          <t>0,76; 4,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,18</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 10,6</t>
+          <t>5,12; 10,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,8</t>
+          <t>2,22; 5,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,47</t>
+          <t>1,19; 4,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,62</t>
+          <t>3,39; 6,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1056,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,65</t>
+          <t>0,76; 2,62</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,85</t>
+          <t>0,86; 5,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,28</t>
+          <t>0,0; 3,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,13</t>
+          <t>0,42; 3,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 12,58</t>
+          <t>4,44; 12,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,32</t>
+          <t>1,24; 5,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,12</t>
+          <t>0,38; 3,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,93</t>
+          <t>3,03; 7,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,58</t>
+          <t>0,89; 3,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,59</t>
+          <t>0,42; 2,51</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1240,49 +1241,49 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,34</t>
+          <t>0,73; 4,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,27</t>
+          <t>0,36; 2,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,48; 16,54</t>
+          <t>8,76; 16,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,73; 9,81</t>
+          <t>3,51; 9,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,88</t>
+          <t>0,33; 2,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,77</t>
+          <t>4,24; 8,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,33</t>
+          <t>2,63; 6,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,13</t>
+          <t>0,49; 2,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,86</t>
+          <t>0,28; 1,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,05</t>
+          <t>1,23; 4,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,16</t>
+          <t>0,34; 1,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,2</t>
+          <t>7,04; 11,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,11; 11,77</t>
+          <t>6,9; 11,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,44</t>
+          <t>1,76; 4,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,87; 6,4</t>
+          <t>3,84; 6,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,23</t>
+          <t>4,56; 7,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,8</t>
+          <t>1,26; 2,81</t>
         </is>
       </c>
     </row>
@@ -1460,42 +1461,42 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,0</t>
+          <t>4,45; 8,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,56</t>
+          <t>0,88; 2,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,67; 8,17</t>
+          <t>4,62; 8,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,96; 14,7</t>
+          <t>9,87; 14,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,88</t>
+          <t>5,29; 8,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,08</t>
+          <t>3,93; 6,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,95; 10,97</t>
+          <t>7,74; 10,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,43</t>
+          <t>3,34; 5,42</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,51</t>
+          <t>1,51; 2,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,12</t>
+          <t>1,99; 3,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,27</t>
+          <t>0,64; 1,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,94; 8,87</t>
+          <t>6,92; 8,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,55; 8,33</t>
+          <t>6,52; 8,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,14</t>
+          <t>2,94; 4,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,39; 5,43</t>
+          <t>4,39; 5,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,52; 5,58</t>
+          <t>4,53; 5,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,63</t>
+          <t>1,93; 2,65</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11054</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3364</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20113</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>22190</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8864</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31166</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25554</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13581</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5238; 20627</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>837; 7702</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1846; 10603</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12263; 30609</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13858; 32407</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3929; 18140</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20418; 43243</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16467; 37210</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7531; 22632</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6661</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>32517</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17041</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3138</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>40952</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23702</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3138</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4468; 15686</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2852; 13067</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2027</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23223; 44969</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10192; 28029</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>980; 8416</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>29802; 55853</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15502; 34652</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>980; 8980</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1882</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2889</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27846</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23816</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21294</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29728</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26705</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22290</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7284</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>926; 7720</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5795</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18902; 39082</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15444; 33927</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13741; 30113</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19664; 41747</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17714; 37627</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15305; 33652</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6706</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27872</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14415</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9487</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34578</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15292</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>11454</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2727; 14676</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4478</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6089</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>19021; 39838</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8604; 22850</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4613; 17016</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24729; 47825</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8750; 23809</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5719; 19736</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2280</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2817</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>15760</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5745</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2528</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20829</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8026</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5346</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1742; 11096</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7892</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>881; 8038</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9225; 25040</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2715; 11872</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>821; 7719</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12469; 30568</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3837; 14782</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1805; 10788</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5805</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2902</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>33425</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>17380</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2717</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>34304</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>23185</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5620</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3588</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1984; 12621</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>943; 7845</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>24355; 45461</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>9769; 27785</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>886; 8128</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>23250; 46447</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>14476; 34475</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2602; 11970</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>15523</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>6477</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>57342</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>62720</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>19644</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>62013</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>78243</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>26121</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1729; 11197</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8048; 27223</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2197; 12985</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>44932; 72196</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>47726; 78472</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>12081; 29852</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>48116; 79854</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>61413; 99297</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>16925; 37636</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>26999</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>47901</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>12019</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>49057</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>99790</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>57084</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>76056</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>147691</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>69103</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>17574; 38594</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>34584; 64257</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>6821; 20685</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>36197; 63159</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>80817; 119844</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>43631; 71457</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>60052; 95766</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>123587; 171958</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>53568; 86820</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>65695</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>85301</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>31896</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>263932</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>263098</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>124757</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>329626</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>348399</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>156653</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>49328; 82988</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>67959; 106551</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>21737; 46443</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>233817; 295437</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>231049; 297812</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>103962; 145822</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>292503; 368021</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>315059; 389265</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>133144; 182921</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>